--- a/testExcel_json/excel/staff.xlsx
+++ b/testExcel_json/excel/staff.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11505"/>
+    <workbookView windowWidth="21000" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_staff_exp" sheetId="1" r:id="rId1"/>
+    <sheet name="tbl_staff_exp1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +26,12 @@
     <t>所需经验</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -32,6 +39,54 @@
   </si>
   <si>
     <t>exp</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>描述1</t>
+  </si>
+  <si>
+    <t>描述2</t>
+  </si>
+  <si>
+    <t>描述3</t>
+  </si>
+  <si>
+    <t>描述4</t>
+  </si>
+  <si>
+    <t>描述5</t>
+  </si>
+  <si>
+    <t>描述6</t>
+  </si>
+  <si>
+    <t>描述7</t>
+  </si>
+  <si>
+    <t>描述8</t>
+  </si>
+  <si>
+    <t>描述9</t>
+  </si>
+  <si>
+    <t>描述10</t>
+  </si>
+  <si>
+    <t>描述11</t>
   </si>
 </sst>
 </file>
@@ -39,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -59,6 +114,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -66,6 +137,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -74,90 +167,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,17 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,9 +211,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,47 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,7 +489,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,7 +524,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,19 +578,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,112 +599,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,10 +1063,271 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>300</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>400</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>500</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>600</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>700</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>800</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>900</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -1019,7 +1335,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,141 +1346,151 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="C8" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="C9" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="C10" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="C11" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="C12" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="C13" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1000</v>
+      <c r="C14" s="1">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/testExcel_json/excel/staff.xlsx
+++ b/testExcel_json/excel/staff.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PetS\testExcel_json\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_staff_exp" sheetId="1" r:id="rId1"/>
     <sheet name="tbl_staff_exp1" sheetId="2" r:id="rId2"/>
+    <sheet name="settingg" sheetId="10" r:id="rId3"/>
+    <sheet name="setting" sheetId="6" r:id="rId4"/>
+    <sheet name="skills" sheetId="7" r:id="rId5"/>
+    <sheet name="assistant" sheetId="8" r:id="rId6"/>
+    <sheet name="randompool" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -87,19 +97,576 @@
   </si>
   <si>
     <t>描述11</t>
+  </si>
+  <si>
+    <t>员工工资为正常的150%</t>
+  </si>
+  <si>
+    <t>skill_11</t>
+  </si>
+  <si>
+    <t>员工工资为正常的80%</t>
+  </si>
+  <si>
+    <t>skill_12</t>
+  </si>
+  <si>
+    <t>员工工资为正常的50%</t>
+  </si>
+  <si>
+    <t>skill_21</t>
+  </si>
+  <si>
+    <t>skill_22</t>
+  </si>
+  <si>
+    <t>skill_31</t>
+  </si>
+  <si>
+    <t>设定ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_beginning_assistant_property</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_beginning_assistant_property</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginning_assistant_lvl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginning_assistant_exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginning_assistant_skill_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginning_max_assistant_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginning_assistant_resume_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能最大等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能可升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_maxlvl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_isupdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任劳任怨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>榆木脑袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取经验为正常的80%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举一反三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取经验为正常的120%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融会贯通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取经验为正常的150%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时聪敏属性提升值-1，升级时聪敏属性定向提升值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 影响初始属性？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时聪敏属性提升值+1，升级时聪敏属性定向提升值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨嘴笨舌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时口才属性提升值-1，升级时口才属性定向提升值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧舌如簧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时口才属性提升值+1，升级时口才属性定向提升值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼高手低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时操作属性提升值-1，升级时操作属性定向提升值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵手巧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时操作属性提升值+1，升级时操作属性定向提升值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学渣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时知识属性提升值-1，升级时知识属性定向提升值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学霸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时知识属性提升值+1，升级时知识属性定向提升值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博览群书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_71</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时可选技能+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员外观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_lvl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_intelligence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_eloquence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_operation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机01</t>
+  </si>
+  <si>
+    <t>随机02</t>
+  </si>
+  <si>
+    <t>随机03</t>
+  </si>
+  <si>
+    <t>随机04</t>
+  </si>
+  <si>
+    <t>随机05</t>
+  </si>
+  <si>
+    <t>随机06</t>
+  </si>
+  <si>
+    <t>随机07</t>
+  </si>
+  <si>
+    <t>随机08</t>
+  </si>
+  <si>
+    <t>随机09</t>
+  </si>
+  <si>
+    <t>random_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_01</t>
+  </si>
+  <si>
+    <t>random_02</t>
+  </si>
+  <si>
+    <t>random_03</t>
+  </si>
+  <si>
+    <t>random_04</t>
+  </si>
+  <si>
+    <t>random_05</t>
+  </si>
+  <si>
+    <t>random_06</t>
+  </si>
+  <si>
+    <t>random_07</t>
+  </si>
+  <si>
+    <t>random_08</t>
+  </si>
+  <si>
+    <t>random_09</t>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant002</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant003</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant004</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant005</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant006</t>
+  </si>
+  <si>
+    <t>图片名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant001.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant002.png</t>
+  </si>
+  <si>
+    <t>assistant003.png</t>
+  </si>
+  <si>
+    <t>assistant004.png</t>
+  </si>
+  <si>
+    <t>assistant005.png</t>
+  </si>
+  <si>
+    <t>assistant006.png</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>赵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settingvalue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settingname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settingid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,348 +678,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -462,315 +733,55 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1057,26 +1068,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1144,7 +1155,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1175,10 +1186,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1195,7 +1206,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1212,7 +1223,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1246,7 +1257,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1263,7 +1274,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1277,10 +1288,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="1">
-        <v>8.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1294,10 +1305,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="1">
-        <v>9.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1315,27 +1326,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1390,7 +1400,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1434,7 +1444,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1445,7 +1455,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1456,7 +1466,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1467,7 +1477,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1478,7 +1488,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1490,7 +1500,1098 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="42.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="42.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="12" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>71</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="21.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="47.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testExcel_json/excel/staff.xlsx
+++ b/testExcel_json/excel/staff.xlsx
@@ -9,23 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11505" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_staff_exp" sheetId="1" r:id="rId1"/>
     <sheet name="tbl_staff_exp1" sheetId="2" r:id="rId2"/>
-    <sheet name="settingg" sheetId="10" r:id="rId3"/>
-    <sheet name="setting" sheetId="6" r:id="rId4"/>
-    <sheet name="skills" sheetId="7" r:id="rId5"/>
-    <sheet name="assistant" sheetId="8" r:id="rId6"/>
-    <sheet name="randompool" sheetId="9" r:id="rId7"/>
+    <sheet name="setting" sheetId="6" r:id="rId3"/>
+    <sheet name="skills" sheetId="7" r:id="rId4"/>
+    <sheet name="assistant" sheetId="8" r:id="rId5"/>
+    <sheet name="randompool" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -135,10 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>setting_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>setting_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -207,10 +202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>skill_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_maxlvl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -219,446 +210,434 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>skill_icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任劳任怨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>榆木脑袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取经验为正常的80%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举一反三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取经验为正常的120%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>融会贯通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取经验为正常的150%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨蛋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时聪敏属性提升值-1，升级时聪敏属性定向提升值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 影响初始属性？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时聪敏属性提升值+1，升级时聪敏属性定向提升值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨嘴笨舌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时口才属性提升值-1，升级时口才属性定向提升值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧舌如簧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时口才属性提升值+1，升级时口才属性定向提升值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼高手低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时操作属性提升值-1，升级时操作属性定向提升值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵手巧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时操作属性提升值+1，升级时操作属性定向提升值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学渣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时知识属性提升值-1，升级时知识属性定向提升值-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学霸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时知识属性提升值+1，升级时知识属性定向提升值+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博览群书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_71</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级时可选技能+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员外观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店员经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_lvl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_intelligence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_eloquence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_operation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant_skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机01</t>
+  </si>
+  <si>
+    <t>随机02</t>
+  </si>
+  <si>
+    <t>随机03</t>
+  </si>
+  <si>
+    <t>随机04</t>
+  </si>
+  <si>
+    <t>随机05</t>
+  </si>
+  <si>
+    <t>随机06</t>
+  </si>
+  <si>
+    <t>随机07</t>
+  </si>
+  <si>
+    <t>随机08</t>
+  </si>
+  <si>
+    <t>随机09</t>
+  </si>
+  <si>
+    <t>random_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_01</t>
+  </si>
+  <si>
+    <t>random_02</t>
+  </si>
+  <si>
+    <t>random_03</t>
+  </si>
+  <si>
+    <t>random_04</t>
+  </si>
+  <si>
+    <t>random_05</t>
+  </si>
+  <si>
+    <t>random_06</t>
+  </si>
+  <si>
+    <t>random_07</t>
+  </si>
+  <si>
+    <t>random_08</t>
+  </si>
+  <si>
+    <t>random_09</t>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant002</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant003</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant004</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant005</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant006</t>
+  </si>
+  <si>
+    <t>图片名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant005.png</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>赵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>skill_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实习生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任劳任怨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>榆木脑袋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取经验为正常的80%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>举一反三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取经验为正常的120%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>融会贯通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取经验为正常的150%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>笨蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时聪敏属性提升值-1，升级时聪敏属性定向提升值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 影响初始属性？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时聪敏属性提升值+1，升级时聪敏属性定向提升值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>笨嘴笨舌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时口才属性提升值-1，升级时口才属性定向提升值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巧舌如簧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时口才属性提升值+1，升级时口才属性定向提升值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼高手低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时操作属性提升值-1，升级时操作属性定向提升值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心灵手巧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时操作属性提升值+1，升级时操作属性定向提升值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学渣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时知识属性提升值-1，升级时知识属性定向提升值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学霸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时知识属性提升值+1，升级时知识属性定向提升值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>博览群书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_71</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时可选技能+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店员ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店员姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店员外观</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店员等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店员经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聪敏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>口才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_lvl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_exp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_intelligence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_eloquence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_operation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_knowledge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant_skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机01</t>
-  </si>
-  <si>
-    <t>随机02</t>
-  </si>
-  <si>
-    <t>随机03</t>
-  </si>
-  <si>
-    <t>随机04</t>
-  </si>
-  <si>
-    <t>随机05</t>
-  </si>
-  <si>
-    <t>随机06</t>
-  </si>
-  <si>
-    <t>随机07</t>
-  </si>
-  <si>
-    <t>随机08</t>
-  </si>
-  <si>
-    <t>随机09</t>
-  </si>
-  <si>
-    <t>random_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_01</t>
-  </si>
-  <si>
-    <t>random_02</t>
-  </si>
-  <si>
-    <t>random_03</t>
-  </si>
-  <si>
-    <t>random_04</t>
-  </si>
-  <si>
-    <t>random_05</t>
-  </si>
-  <si>
-    <t>random_06</t>
-  </si>
-  <si>
-    <t>random_07</t>
-  </si>
-  <si>
-    <t>random_08</t>
-  </si>
-  <si>
-    <t>random_09</t>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant002</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant003</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant004</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant005</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant006</t>
-  </si>
-  <si>
-    <t>图片名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant001.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant002.png</t>
-  </si>
-  <si>
-    <t>assistant003.png</t>
-  </si>
-  <si>
-    <t>assistant004.png</t>
-  </si>
-  <si>
-    <t>assistant005.png</t>
-  </si>
-  <si>
-    <t>assistant006.png</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>赵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>settingvalue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>settingname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>settingid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,12 +686,6 @@
       <color rgb="FF9CDCFE"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1509,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1537,25 +1510,25 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -1564,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1576,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
@@ -1588,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1599,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -1610,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -1621,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1632,14 +1605,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1647,150 +1620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="42.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1806,59 +1639,59 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1884,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
@@ -1907,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1930,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -1953,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1976,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1999,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -2022,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2045,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -2068,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -2091,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -2114,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -2137,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -2160,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -2183,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -2206,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -2225,12 +2058,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2246,71 +2079,71 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -2319,25 +2152,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2346,12 +2179,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2364,78 +2197,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2481,37 +2314,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -2519,37 +2352,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -2557,37 +2390,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/testExcel_json/excel/staff.xlsx
+++ b/testExcel_json/excel/staff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11505" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_staff_exp" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="172">
   <si>
     <t>ID</t>
   </si>
@@ -458,186 +458,203 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>随机ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机01</t>
+  </si>
+  <si>
+    <t>随机02</t>
+  </si>
+  <si>
+    <t>随机03</t>
+  </si>
+  <si>
+    <t>随机04</t>
+  </si>
+  <si>
+    <t>随机05</t>
+  </si>
+  <si>
+    <t>随机06</t>
+  </si>
+  <si>
+    <t>随机07</t>
+  </si>
+  <si>
+    <t>随机08</t>
+  </si>
+  <si>
+    <t>随机09</t>
+  </si>
+  <si>
+    <t>random_00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_01</t>
+  </si>
+  <si>
+    <t>random_02</t>
+  </si>
+  <si>
+    <t>random_03</t>
+  </si>
+  <si>
+    <t>random_04</t>
+  </si>
+  <si>
+    <t>random_05</t>
+  </si>
+  <si>
+    <t>random_06</t>
+  </si>
+  <si>
+    <t>random_07</t>
+  </si>
+  <si>
+    <t>random_08</t>
+  </si>
+  <si>
+    <t>random_09</t>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant002</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant003</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant004</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant005</t>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant006</t>
+  </si>
+  <si>
+    <t>图片名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>赵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db://assets/Texture/assistant/assistant002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>int[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>随机ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机01</t>
-  </si>
-  <si>
-    <t>随机02</t>
-  </si>
-  <si>
-    <t>随机03</t>
-  </si>
-  <si>
-    <t>随机04</t>
-  </si>
-  <si>
-    <t>随机05</t>
-  </si>
-  <si>
-    <t>随机06</t>
-  </si>
-  <si>
-    <t>随机07</t>
-  </si>
-  <si>
-    <t>随机08</t>
-  </si>
-  <si>
-    <t>随机09</t>
-  </si>
-  <si>
-    <t>random_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_01</t>
-  </si>
-  <si>
-    <t>random_02</t>
-  </si>
-  <si>
-    <t>random_03</t>
-  </si>
-  <si>
-    <t>random_04</t>
-  </si>
-  <si>
-    <t>random_05</t>
-  </si>
-  <si>
-    <t>random_06</t>
-  </si>
-  <si>
-    <t>random_07</t>
-  </si>
-  <si>
-    <t>random_08</t>
-  </si>
-  <si>
-    <t>random_09</t>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant002</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant003</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant004</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant005</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant006</t>
-  </si>
-  <si>
-    <t>图片名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant005.png</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>赵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_name</t>
+    <t>[10,21]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +743,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +759,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1510,7 +1530,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
@@ -1622,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1662,7 +1682,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>52</v>
@@ -1671,7 +1691,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>54</v>
@@ -2060,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2078,99 +2098,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>116</v>
+      <c r="J3" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>55</v>
+      </c>
+      <c r="G4" s="7">
+        <v>55</v>
+      </c>
+      <c r="H4" s="7">
+        <v>55</v>
+      </c>
+      <c r="I4" s="7">
+        <v>55</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2236,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2197,78 +2249,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2314,37 +2366,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -2352,37 +2404,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -2390,37 +2442,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/testExcel_json/excel/staff.xlsx
+++ b/testExcel_json/excel/staff.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PetS\testExcel_json\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11505" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_staff_exp" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>ID</t>
   </si>
@@ -98,571 +93,353 @@
     <t>描述11</t>
   </si>
   <si>
+    <t>设定ID</t>
+  </si>
+  <si>
+    <t>设定名称</t>
+  </si>
+  <si>
+    <t>设定数值</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>setting_value</t>
+  </si>
+  <si>
+    <t>min_beginning_assistant_property</t>
+  </si>
+  <si>
+    <t>max_beginning_assistant_property</t>
+  </si>
+  <si>
+    <t>beginning_assistant_lvl</t>
+  </si>
+  <si>
+    <t>beginning_assistant_exp</t>
+  </si>
+  <si>
+    <t>beginning_assistant_skill_amount</t>
+  </si>
+  <si>
+    <t>beginning_max_assistant_amount</t>
+  </si>
+  <si>
+    <t>beginning_assistant_resume_amount</t>
+  </si>
+  <si>
+    <t>技能ID</t>
+  </si>
+  <si>
+    <t>技能最大等级</t>
+  </si>
+  <si>
+    <t>技能可升级</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能图标</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>技能备注</t>
+  </si>
+  <si>
+    <t>skill_maxlvl</t>
+  </si>
+  <si>
+    <t>skill_isupdate</t>
+  </si>
+  <si>
+    <t>skill_name</t>
+  </si>
+  <si>
+    <t>skill_icon</t>
+  </si>
+  <si>
+    <t>skill_text</t>
+  </si>
+  <si>
+    <t>skill_remark</t>
+  </si>
+  <si>
+    <t>关系户</t>
+  </si>
+  <si>
+    <t>skill_10</t>
+  </si>
+  <si>
     <t>员工工资为正常的150%</t>
   </si>
   <si>
+    <t>实习生</t>
+  </si>
+  <si>
     <t>skill_11</t>
   </si>
   <si>
     <t>员工工资为正常的80%</t>
   </si>
   <si>
+    <t>任劳任怨</t>
+  </si>
+  <si>
     <t>skill_12</t>
   </si>
   <si>
     <t>员工工资为正常的50%</t>
   </si>
   <si>
+    <t>榆木脑袋</t>
+  </si>
+  <si>
+    <t>skill_20</t>
+  </si>
+  <si>
+    <t>获取经验为正常的80%</t>
+  </si>
+  <si>
+    <t>举一反三</t>
+  </si>
+  <si>
     <t>skill_21</t>
   </si>
   <si>
+    <t>获取经验为正常的120%</t>
+  </si>
+  <si>
+    <t>融会贯通</t>
+  </si>
+  <si>
     <t>skill_22</t>
   </si>
   <si>
+    <t>获取经验为正常的150%</t>
+  </si>
+  <si>
+    <t>笨蛋</t>
+  </si>
+  <si>
+    <t>skill_30</t>
+  </si>
+  <si>
+    <t>升级时聪敏属性提升值-1，升级时聪敏属性定向提升值-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 影响初始属性？</t>
+  </si>
+  <si>
+    <t>天才</t>
+  </si>
+  <si>
     <t>skill_31</t>
   </si>
   <si>
-    <t>设定ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设定名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设定数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>setting_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>setting_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_beginning_assistant_property</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_beginning_assistant_property</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginning_assistant_lvl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginning_assistant_exp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginning_assistant_skill_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginning_max_assistant_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginning_assistant_resume_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能最大等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能可升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_maxlvl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_isupdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实习生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任劳任怨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>榆木脑袋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取经验为正常的80%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>举一反三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取经验为正常的120%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>融会贯通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取经验为正常的150%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>笨蛋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级时聪敏属性提升值-1，升级时聪敏属性定向提升值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 影响初始属性？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>升级时聪敏属性提升值+1，升级时聪敏属性定向提升值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>笨嘴笨舌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>skill_40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>升级时口才属性提升值-1，升级时口才属性定向提升值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>巧舌如簧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>skill_41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>升级时口才属性提升值+1，升级时口才属性定向提升值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>眼高手低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>skill_50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>升级时操作属性提升值-1，升级时操作属性定向提升值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>心灵手巧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>skill_51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>升级时操作属性提升值+1，升级时操作属性定向提升值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学渣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>skill_60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>升级时知识属性提升值-1，升级时知识属性定向提升值-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学霸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>skill_61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>升级时知识属性提升值+1，升级时知识属性定向提升值+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>博览群书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>skill_71</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>升级时可选技能+1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>店员ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>店员姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>店员外观</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>店员等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>店员经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>聪敏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>口才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>知识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assistant_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assistant_icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assistant_lvl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assistant_exp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assistant_intelligence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assistant_eloquence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assistant_operation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assistant_knowledge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>assistant_skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>随机ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机01</t>
-  </si>
-  <si>
-    <t>随机02</t>
-  </si>
-  <si>
-    <t>随机03</t>
-  </si>
-  <si>
-    <t>随机04</t>
-  </si>
-  <si>
-    <t>随机05</t>
-  </si>
-  <si>
-    <t>随机06</t>
-  </si>
-  <si>
-    <t>随机07</t>
-  </si>
-  <si>
-    <t>随机08</t>
-  </si>
-  <si>
-    <t>随机09</t>
-  </si>
-  <si>
-    <t>random_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_01</t>
-  </si>
-  <si>
-    <t>random_02</t>
-  </si>
-  <si>
-    <t>random_03</t>
-  </si>
-  <si>
-    <t>random_04</t>
-  </si>
-  <si>
-    <t>random_05</t>
-  </si>
-  <si>
-    <t>random_06</t>
-  </si>
-  <si>
-    <t>random_07</t>
-  </si>
-  <si>
-    <t>random_08</t>
-  </si>
-  <si>
-    <t>random_09</t>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant002</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant003</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant004</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant005</t>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant006</t>
-  </si>
-  <si>
-    <t>图片名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
+  </si>
+  <si>
+    <t>随机店员名字</t>
+  </si>
+  <si>
+    <t>随机店员头像</t>
+  </si>
+  <si>
+    <t>随机技能图标</t>
+  </si>
+  <si>
+    <t>random_name</t>
+  </si>
+  <si>
+    <t>random_icon</t>
+  </si>
+  <si>
+    <t>random_skillicon</t>
   </si>
   <si>
     <t>赵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant001</t>
+  </si>
+  <si>
+    <t>assistant004</t>
   </si>
   <si>
     <t>钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant002</t>
+  </si>
+  <si>
+    <t>assistant005</t>
   </si>
   <si>
     <t>孙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant003</t>
+  </si>
+  <si>
+    <t>assistant006</t>
   </si>
   <si>
     <t>李</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>周</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>吴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>郑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>db://assets/Texture/assistant/assistant002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistant001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[10,21]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,47 +450,362 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9CDCFE"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -723,58 +815,347 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1061,592 +1442,595 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="13.25" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>200</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="E6" s="8">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>300</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="8">
         <v>3.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>400</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="8">
         <v>4.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>500</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="8">
         <v>5.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:5">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>600</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
         <v>6.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:5">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>700</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="8">
         <v>7.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+    <row r="12" spans="1:5">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>800</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="E12" s="8">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>900</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="E13" s="8">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>1000</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="8">
         <v>10.3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="8">
         <v>6000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="8">
         <v>7000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>8000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>9000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="3" customWidth="1"/>
     <col min="4" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="42.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.75" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" ht="15" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="15" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" ht="15" spans="1:6">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" ht="15" spans="1:6">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
@@ -1657,61 +2041,61 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1726,7 +2110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>10</v>
       </c>
@@ -1737,19 +2121,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>11</v>
       </c>
@@ -1760,19 +2144,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>12</v>
       </c>
@@ -1783,19 +2167,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>20</v>
       </c>
@@ -1806,19 +2190,19 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>21</v>
       </c>
@@ -1829,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>22</v>
       </c>
@@ -1852,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -1875,19 +2259,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="5">
         <v>31</v>
       </c>
@@ -1898,19 +2282,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>40</v>
       </c>
@@ -1921,19 +2305,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="5">
         <v>41</v>
       </c>
@@ -1944,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="5">
         <v>50</v>
       </c>
@@ -1967,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="5">
         <v>51</v>
       </c>
@@ -1990,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="5">
         <v>60</v>
       </c>
@@ -2013,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="5">
         <v>61</v>
       </c>
@@ -2036,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="5">
         <v>71</v>
       </c>
@@ -2059,424 +2443,333 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="21.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="16.125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25" style="3" customWidth="1"/>
+    <col min="7" max="9" width="21.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>55</v>
-      </c>
-      <c r="G4" s="7">
-        <v>55</v>
-      </c>
-      <c r="H4" s="7">
-        <v>55</v>
-      </c>
-      <c r="I4" s="7">
-        <v>55</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="47.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>156</v>
+      <c r="C11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testExcel_json/excel/staff.xlsx
+++ b/testExcel_json/excel/staff.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>ID</t>
   </si>
@@ -171,7 +171,7 @@
     <t>关系户</t>
   </si>
   <si>
-    <t>skill_10</t>
+    <t>icon001</t>
   </si>
   <si>
     <t>员工工资为正常的150%</t>
@@ -180,7 +180,7 @@
     <t>实习生</t>
   </si>
   <si>
-    <t>skill_11</t>
+    <t>icon002</t>
   </si>
   <si>
     <t>员工工资为正常的80%</t>
@@ -189,7 +189,7 @@
     <t>任劳任怨</t>
   </si>
   <si>
-    <t>skill_12</t>
+    <t>icon003</t>
   </si>
   <si>
     <t>员工工资为正常的50%</t>
@@ -198,36 +198,24 @@
     <t>榆木脑袋</t>
   </si>
   <si>
-    <t>skill_20</t>
-  </si>
-  <si>
     <t>获取经验为正常的80%</t>
   </si>
   <si>
     <t>举一反三</t>
   </si>
   <si>
-    <t>skill_21</t>
-  </si>
-  <si>
     <t>获取经验为正常的120%</t>
   </si>
   <si>
     <t>融会贯通</t>
   </si>
   <si>
-    <t>skill_22</t>
-  </si>
-  <si>
     <t>获取经验为正常的150%</t>
   </si>
   <si>
     <t>笨蛋</t>
   </si>
   <si>
-    <t>skill_30</t>
-  </si>
-  <si>
     <t>升级时聪敏属性提升值-1，升级时聪敏属性定向提升值-1</t>
   </si>
   <si>
@@ -237,72 +225,48 @@
     <t>天才</t>
   </si>
   <si>
-    <t>skill_31</t>
-  </si>
-  <si>
     <t>升级时聪敏属性提升值+1，升级时聪敏属性定向提升值+1</t>
   </si>
   <si>
     <t>笨嘴笨舌</t>
   </si>
   <si>
-    <t>skill_40</t>
-  </si>
-  <si>
     <t>升级时口才属性提升值-1，升级时口才属性定向提升值-1</t>
   </si>
   <si>
     <t>巧舌如簧</t>
   </si>
   <si>
-    <t>skill_41</t>
-  </si>
-  <si>
     <t>升级时口才属性提升值+1，升级时口才属性定向提升值+1</t>
   </si>
   <si>
     <t>眼高手低</t>
   </si>
   <si>
-    <t>skill_50</t>
-  </si>
-  <si>
     <t>升级时操作属性提升值-1，升级时操作属性定向提升值-1</t>
   </si>
   <si>
     <t>心灵手巧</t>
   </si>
   <si>
-    <t>skill_51</t>
-  </si>
-  <si>
     <t>升级时操作属性提升值+1，升级时操作属性定向提升值+1</t>
   </si>
   <si>
     <t>学渣</t>
   </si>
   <si>
-    <t>skill_60</t>
-  </si>
-  <si>
     <t>升级时知识属性提升值-1，升级时知识属性定向提升值-1</t>
   </si>
   <si>
     <t>学霸</t>
   </si>
   <si>
-    <t>skill_61</t>
-  </si>
-  <si>
     <t>升级时知识属性提升值+1，升级时知识属性定向提升值+1</t>
   </si>
   <si>
     <t>博览群书</t>
   </si>
   <si>
-    <t>skill_71</t>
-  </si>
-  <si>
     <t>升级时可选技能+1</t>
   </si>
   <si>
@@ -372,58 +336,52 @@
     <t>随机店员头像</t>
   </si>
   <si>
-    <t>随机技能图标</t>
-  </si>
-  <si>
     <t>random_name</t>
   </si>
   <si>
     <t>random_icon</t>
   </si>
   <si>
-    <t>random_skillicon</t>
-  </si>
-  <si>
     <t>赵</t>
   </si>
   <si>
     <t>assistant001</t>
   </si>
   <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>assistant002</t>
+  </si>
+  <si>
+    <t>孙</t>
+  </si>
+  <si>
+    <t>assistant003</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
     <t>assistant004</t>
   </si>
   <si>
-    <t>钱</t>
-  </si>
-  <si>
-    <t>assistant002</t>
+    <t>周</t>
   </si>
   <si>
     <t>assistant005</t>
   </si>
   <si>
-    <t>孙</t>
-  </si>
-  <si>
-    <t>assistant003</t>
+    <t>吴</t>
   </si>
   <si>
     <t>assistant006</t>
   </si>
   <si>
-    <t>李</t>
+    <t>郑</t>
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>周</t>
-  </si>
-  <si>
-    <t>吴</t>
-  </si>
-  <si>
-    <t>郑</t>
   </si>
   <si>
     <t>王</t>
@@ -435,18 +393,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,9 +540,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,8 +554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,54 +571,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -680,37 +667,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,12 +721,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -740,61 +733,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,157 +897,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,246 +1404,246 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="13.25" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="8"/>
+    <col min="1" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="13.25" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>100</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>200</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>2.3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>300</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>3.3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>400</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>4.3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>500</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>5.3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>600</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>6.3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>700</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>7.3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>800</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>8.3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>900</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>9.3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>1000</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>10.3</v>
       </c>
     </row>
@@ -1717,160 +1665,160 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="8"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>6000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>7000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>8000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>9000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>10000</v>
       </c>
     </row>
@@ -1909,7 +1857,7 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1921,7 +1869,7 @@
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" ht="15" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1933,7 +1881,7 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" ht="15" spans="1:6">
       <c r="A4" s="2">
@@ -1945,7 +1893,7 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" ht="15" spans="1:6">
       <c r="A5" s="2">
@@ -1957,7 +1905,7 @@
       <c r="C5" s="2">
         <v>50</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
@@ -2027,7 +1975,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2111,19 +2059,19 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -2134,19 +2082,19 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2157,19 +2105,19 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2180,276 +2128,276 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>20</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>60</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
         <v>61</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5">
-        <v>30</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5">
-        <v>40</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5">
-        <v>41</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5">
-        <v>51</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5">
-        <v>60</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5">
-        <v>61</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="5">
-        <v>71</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -2483,112 +2431,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,50 +2547,43 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2652,120 +2593,93 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/testExcel_json/excel/staff.xlsx
+++ b/testExcel_json/excel/staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_staff_exp" sheetId="1" r:id="rId1"/>
@@ -392,9 +392,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -418,90 +418,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,16 +434,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,7 +457,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,7 +479,84 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,55 +571,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,127 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,41 +780,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,11 +823,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,26 +869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,133 +897,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1398,8 +1398,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1974,8 +1974,8 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
